--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/229bfb692b35caca/bravo_projects/data_clean_vehicles/data_clean_vehicle_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{43853356-F02F-4146-9F56-31C8BD0929A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D15C5D29-F877-4122-8C22-562803D4D5F9}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{43853356-F02F-4146-9F56-31C8BD0929A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C0E3652-72E0-4571-AFB1-7B8A20706452}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A2B939D-DD13-48B6-B5AA-08DF41CBAEA0}"/>
+    <workbookView xWindow="-28920" yWindow="-3270" windowWidth="29040" windowHeight="15840" xr2:uid="{4A2B939D-DD13-48B6-B5AA-08DF41CBAEA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>Variable Name</t>
   </si>
@@ -77,29 +77,164 @@
     <t>Categorical</t>
   </si>
   <si>
-    <t>The vehicle manufacturer (Ford, Toyota, BMW)</t>
-  </si>
-  <si>
     <t>"Jeep"</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>"Wagoneer"</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>The type of vehicle. (New, Used).</t>
+  </si>
+  <si>
+    <t>The model name of the vehicle.</t>
+  </si>
+  <si>
+    <t>The vehicle manufacturer (Ford, Toyota, BMW).</t>
+  </si>
+  <si>
+    <t>"New"</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>The year the vehicle was manufactured</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Discrete</t>
+  </si>
+  <si>
+    <t>The price of the vehicles in USD.</t>
+  </si>
+  <si>
+    <t>"2024"</t>
+  </si>
+  <si>
+    <t>"74600.0"</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>Details about the engine, including type and specifications</t>
+  </si>
+  <si>
+    <t>"24V GDI DOHC Twin Turbo"</t>
+  </si>
+  <si>
+    <t>cylinders</t>
+  </si>
+  <si>
+    <t>The number of cylinders in a vehicle's engine.</t>
+  </si>
+  <si>
+    <t>"6.0"</t>
+  </si>
+  <si>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>The type of fuel the vehicle uses. (Gasoline, Diesel, Electric)</t>
+  </si>
+  <si>
+    <t>"Gasoline"</t>
+  </si>
+  <si>
+    <t>mileage</t>
+  </si>
+  <si>
+    <t>"32.0"</t>
+  </si>
+  <si>
+    <t>The vehicle's mileage.</t>
+  </si>
+  <si>
+    <t>transmission</t>
+  </si>
+  <si>
+    <t>The transmission type. (Automatic, Manual)</t>
+  </si>
+  <si>
+    <t>"8-Speed Automatic"</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>The trim level of the vehicle, indicating different feature sets or packages</t>
+  </si>
+  <si>
+    <t>"Series II"</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>The vehicle's body style. (SUV, Sedan, Pickup Truck)</t>
+  </si>
+  <si>
+    <t>"SUV"</t>
+  </si>
+  <si>
+    <t>doors</t>
+  </si>
+  <si>
+    <t>The number of doors on the vehicle</t>
+  </si>
+  <si>
+    <t>"4.0"</t>
+  </si>
+  <si>
+    <t>exterior_color</t>
+  </si>
+  <si>
+    <t>The exterior color of the vehicle</t>
+  </si>
+  <si>
+    <t>"White"</t>
+  </si>
+  <si>
+    <t>interior_color</t>
+  </si>
+  <si>
+    <t>The interior color of the vehicle</t>
+  </si>
+  <si>
+    <t>"Global Black"</t>
+  </si>
+  <si>
+    <t>drivetrain</t>
+  </si>
+  <si>
+    <t>The vehicle's drivetrain. (All-wheel Drive, Front-wheel Drive</t>
+  </si>
+  <si>
+    <t>"Four-Wheel Drive"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,14 +257,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -143,18 +296,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D56A3C18-2F85-40AE-9B1D-4B9C761DFEFC}" name="Table1" displayName="Table1" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4" xr:uid="{D56A3C18-2F85-40AE-9B1D-4B9C761DFEFC}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D56A3C18-2F85-40AE-9B1D-4B9C761DFEFC}" name="Table1" displayName="Table1" ref="A1:D19" totalsRowShown="0">
+  <autoFilter ref="A1:D19" xr:uid="{D56A3C18-2F85-40AE-9B1D-4B9C761DFEFC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{97124FF4-E0CD-4166-993C-18D17216E3DE}" name="Variable Name"/>
-    <tableColumn id="2" xr3:uid="{7E7E8C07-0F03-4C22-8477-327438783AD9}" name="Data Type"/>
-    <tableColumn id="3" xr3:uid="{6CF2B30C-7752-4D9C-AE27-16BF688C7D14}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{9A85B79E-1F70-4497-8C28-036B5483E256}" name="Variable Example"/>
+    <tableColumn id="1" xr3:uid="{97124FF4-E0CD-4166-993C-18D17216E3DE}" name="Variable Name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7E7E8C07-0F03-4C22-8477-327438783AD9}" name="Data Type" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{6CF2B30C-7752-4D9C-AE27-16BF688C7D14}" name="Description" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9A85B79E-1F70-4497-8C28-036B5483E256}" name="Variable Example" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -477,74 +630,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE114ABC-B5AE-406F-9228-E1F355D44372}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A4:D4"/>
+      <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="36" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
